--- a/Costlast.xlsx
+++ b/Costlast.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V22AAli168\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1" calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>نوع الخدمة</t>
   </si>
@@ -57,35 +62,75 @@
   <si>
     <t>تكلفة التوصيل = (الوزن المحسوب × سعر الكيلو) + (المسافة × تكلفة لكل كم) + رسوم خدمة ثابتة + رسوم إضافية (إن وجدت)</t>
   </si>
+  <si>
+    <t>ITEMS</t>
+  </si>
+  <si>
+    <t>الحجم</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,8 +142,62 @@
         <fgColor rgb="FFD66565"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -121,31 +220,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16" count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -192,7 +514,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,9 +546,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,6 +581,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -366,7 +690,7 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
@@ -433,250 +757,1208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:XFD13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="B1" showGridLines="0" zoomScale="150">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="1" bestFit="1" width="10.0" style="0"/>
-    <col min="2" max="2" customWidth="1" bestFit="1" width="10.0" style="0"/>
-    <col min="3" max="3" customWidth="1" bestFit="1" width="10.0" style="0"/>
-    <col min="4" max="4" customWidth="1" bestFit="1" width="10.0" style="0"/>
-    <col min="5" max="5" customWidth="1" bestFit="1" width="10.0" style="0"/>
-    <col min="6" max="6" customWidth="1" bestFit="1" width="10.0" style="0"/>
-    <col min="7" max="7" customWidth="1" bestFit="1" width="10.0" style="0"/>
-    <col min="8" max="8" customWidth="1" bestFit="1" width="15.84375" style="0"/>
-    <col min="9" max="9" customWidth="1" bestFit="1" width="13.003906" style="0"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="15">
+        <v>10</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15">
+        <v>10</v>
+      </c>
+      <c r="E2" s="15">
+        <v>10</v>
+      </c>
+      <c r="F2" s="44">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="15">
+        <v>15</v>
+      </c>
+      <c r="C3" s="15">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="15">
+        <v>25</v>
+      </c>
+      <c r="E3" s="15">
+        <v>10</v>
+      </c>
+      <c r="F3" s="44">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="15">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15">
+        <v>25</v>
+      </c>
+      <c r="E4" s="15">
+        <v>10</v>
+      </c>
+      <c r="F4" s="44">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="15">
+        <v>5</v>
+      </c>
+      <c r="D5" s="15">
+        <v>100</v>
+      </c>
+      <c r="E5" s="15">
+        <v>75</v>
+      </c>
+      <c r="F5" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <f>(C2*D2)+(B2*F2)+E2</f>
+        <v>45</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F14" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="15">
+        <v>500</v>
+      </c>
+      <c r="D15" s="15">
+        <v>560</v>
+      </c>
+      <c r="E15" s="15">
+        <v>500</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="15">
+        <v>30</v>
+      </c>
+      <c r="D16" s="15">
+        <v>30</v>
+      </c>
+      <c r="E16" s="15">
+        <v>30</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="15">
+        <v>10</v>
+      </c>
+      <c r="D17" s="15">
+        <v>10</v>
+      </c>
+      <c r="E17" s="15">
+        <v>10</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="15">
+        <v>50</v>
+      </c>
+      <c r="D18" s="15">
+        <v>50</v>
+      </c>
+      <c r="E18" s="15">
+        <v>50</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="33"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F22" s="18"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="34"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="31"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="40"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="40"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="40"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="40"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="40"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="40"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="34"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="36"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="8:8" ht="15.4">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>10.0</v>
-      </c>
-      <c r="C2">
-        <v>2.0</v>
-      </c>
-      <c r="D2">
-        <v>500.0</v>
-      </c>
-      <c r="E2">
-        <v>560.0</v>
-      </c>
-      <c r="F2">
-        <v>500.0</v>
-      </c>
-      <c r="G2">
-        <v>10.0</v>
-      </c>
-      <c r="H2">
-        <v>10.0</v>
-      </c>
-      <c r="I2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="8:8">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>15.0</v>
-      </c>
-      <c r="C3">
-        <v>3.0</v>
-      </c>
-      <c r="D3">
-        <v>30.0</v>
-      </c>
-      <c r="E3">
-        <v>30.0</v>
-      </c>
-      <c r="F3">
-        <v>30.0</v>
-      </c>
-      <c r="G3">
-        <v>25.0</v>
-      </c>
-      <c r="H3">
-        <v>10.0</v>
-      </c>
-      <c r="I3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="8:8">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>5.0</v>
-      </c>
-      <c r="C4">
-        <v>1.0</v>
-      </c>
-      <c r="D4">
-        <v>10.0</v>
-      </c>
-      <c r="E4">
-        <v>10.0</v>
-      </c>
-      <c r="F4">
-        <v>10.0</v>
-      </c>
-      <c r="G4">
-        <v>25.0</v>
-      </c>
-      <c r="H4">
-        <v>10.0</v>
-      </c>
-      <c r="I4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="8:8">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>1000.0</v>
-      </c>
-      <c r="C5">
-        <v>5.0</v>
-      </c>
-      <c r="D5">
-        <v>50.0</v>
-      </c>
-      <c r="E5">
-        <v>50.0</v>
-      </c>
-      <c r="F5">
-        <v>50.0</v>
-      </c>
-      <c r="G5">
-        <v>100.0</v>
-      </c>
-      <c r="H5">
-        <v>75.0</v>
-      </c>
-      <c r="I5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="8:8" s="2" ht="15.4" customFormat="1">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="8:8" s="2" ht="15.4" customFormat="1">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="8:8" s="2" ht="15.4" customFormat="1">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="8:8">
-      <c r="B9">
-        <f>(D2*E2*F2)/1000000</f>
-        <v>140.0</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="8:8">
-      <c r="A10" s="3">
-        <f>(C2*G2)+(B2*I2)+H2</f>
-        <v>45.0</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="8:8">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="8:8">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="8:8">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="40"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="40"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="38"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="40"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="40"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="40"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="40"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="38"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="40"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="34"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="36"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="31"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="40"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="38"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="40"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="38"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="40"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="38"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="40"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="38"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="40"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="38"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="40"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="38"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="40"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="38"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="40"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="38"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="40"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="34"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="36"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="31"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="38"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="40"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="38"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="40"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="38"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="40"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="38"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="40"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="38"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="40"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="38"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="40"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="38"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="40"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="38"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="40"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="38"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="40"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="34"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="36"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="30"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="31"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="38"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="40"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="38"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="40"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="38"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="40"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="38"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="40"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="38"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="40"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="38"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="40"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="38"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="40"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="38"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="40"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="38"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="40"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="34"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="36"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="41"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="41"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="42"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="42"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="42"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="42"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="42"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="42"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="42"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="42"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="42"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="43"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="43"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="43"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="43"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="43"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="43"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="43"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="43"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="43"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A6:XFD6"/>
-    <mergeCell ref="A8:XFD8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A10:H13"/>
+  <mergeCells count="162">
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B18"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A6:F9"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A10:F13"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G1:G1048576"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>